--- a/media/sr-fall-interview-data.xlsx
+++ b/media/sr-fall-interview-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/leolunyc.github.io/media/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Interviw Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="220">
   <si>
     <t>Industry</t>
   </si>
@@ -62,9 +67,6 @@
   </si>
   <si>
     <t>OCR</t>
-  </si>
-  <si>
-    <t>*all easy q's</t>
   </si>
   <si>
     <t>Failed OCR</t>
@@ -107,20 +109,8 @@
     <t>Research Associate</t>
   </si>
   <si>
-    <t xml:space="preserve">*what books have you been reading?
-*do you have any programming exp?
-</t>
-  </si>
-  <si>
     <t>Passed OCR
 Failed superday</t>
-  </si>
-  <si>
-    <t>*What do you do when working on a 
-repeated task?
-*What do you think is a good direction for 
-the company to take?
-*How do you like a small office environment?</t>
   </si>
   <si>
     <t>Passed OCR
@@ -158,17 +148,10 @@
 team exercise</t>
   </si>
   <si>
-    <t>*When did you have to stand firm on 
-a decision?</t>
-  </si>
-  <si>
     <t>1 to 1 w/ director</t>
   </si>
   <si>
     <t>Their Site</t>
-  </si>
-  <si>
-    <t>*I didn't know they existed</t>
   </si>
   <si>
     <t>Declined Interview</t>
@@ -176,9 +159,6 @@
   <si>
     <t>*it would have been a good brand
 name for sure</t>
-  </si>
-  <si>
-    <t>*they all cared a lot about fit</t>
   </si>
   <si>
     <t>1 to 1 w/ vp
@@ -226,13 +206,6 @@
     <t>FLDP</t>
   </si>
   <si>
-    <t>*How would a friend describe you?
-*When did you see a good leadership style?
-*When __ bad style?
-*debate, 1 on 1, solo presentation, group
-presentation, all 3 meals, happy hour</t>
-  </si>
-  <si>
     <t>Passed OCR
 Passed Video
 -had to write some stuff,
@@ -246,11 +219,6 @@
 1 to 1 w/ manager</t>
   </si>
   <si>
-    <t>*Tell me about a time when you had to be
-open?
-*Tell me about a time you had to be flexible</t>
-  </si>
-  <si>
     <t>*I thought I aced it, and the guy
 was friendly and I was confident.
 *Crapshoot</t>
@@ -262,16 +230,10 @@
     <t>Networking helps</t>
   </si>
   <si>
-    <t>*when did you fill in another person's role</t>
-  </si>
-  <si>
     <t>1 to 1, mid lvl manager</t>
   </si>
   <si>
     <t>1 to 1 w/hr</t>
-  </si>
-  <si>
-    <t>*All behavioral</t>
   </si>
   <si>
     <t>Failed phone</t>
@@ -286,11 +248,6 @@
     <t>1 to 1 with hr</t>
   </si>
   <si>
-    <t>*How are 3 stmts connected?
-*Pros and cons of val methods?
-*Which method highest val, which lowest?</t>
-  </si>
-  <si>
     <t>*I performed excellently
 *Crapshoot</t>
   </si>
@@ -298,16 +255,7 @@
     <t>Random OCR</t>
   </si>
   <si>
-    <t>*where is the dow now
-*when did some1 on team not perform up to standards
-*why investment management</t>
-  </si>
-  <si>
     <t>1 to 1, entry lvl associate</t>
-  </si>
-  <si>
-    <t>*what's your biggest accomplishment
-*when did you not get along with someone</t>
   </si>
   <si>
     <t>Failed Video Interview</t>
@@ -325,12 +273,6 @@
     <t>Management Rotational Program</t>
   </si>
   <si>
-    <t>*case study of tailored vs mass market 
-insurance plan
-*when would someone want to choose the 
-lower payout one?</t>
-  </si>
-  <si>
     <t>Passed phone screen 
 done by 3rd pty recruiter
 Failed 2nd round phone</t>
@@ -347,17 +289,7 @@
     <t>Market Risk Analyst</t>
   </si>
   <si>
-    <t>*what is the current treasury yield?
-*what math classes have you taken?</t>
-  </si>
-  <si>
     <t>2 to 1, vp's</t>
-  </si>
-  <si>
-    <t>*difficult time working as part of a team?
-*what interests you in this field?
-*if there was position in life sciences would 
-you be interested?</t>
   </si>
   <si>
     <t>*took forever to get back to me
@@ -370,13 +302,6 @@
   </si>
   <si>
     <t>IBD Analyst</t>
-  </si>
-  <si>
-    <t>*3 valuation methods
-*what do you know about our firm?
-*what is preferred stock?
-*given what you know about ib, are you 
-still interested?</t>
   </si>
   <si>
     <t>*I should have emphasized I like
@@ -391,16 +316,6 @@
 and a vp</t>
   </si>
   <si>
-    <t>*some small knowledge on subsectors: what
-are some comps for f&amp;b companies?
-*diff btwn cash &amp; accrual accounting?
-*what are the names of the accting rules?
-*how to go from rev to FCF?
-*what are the components to revenue?
-*how many pages are your pitchbooks?
-*what are some components to pitchbooks?</t>
-  </si>
-  <si>
     <t>Passed OCR
 Failed Superday</t>
   </si>
@@ -429,18 +344,7 @@
     <t>Compensation Consulting Analyst</t>
   </si>
   <si>
-    <t>*What comp structure gives the highest 
-multiple, a steady or not steady? =steady
-*If you knew a company stock will tank, would 
-you take options or stock? stock to cash out
-*what has higher comp ratio, IB or CB? IB
-because it's less capital intensive, no BS</t>
-  </si>
-  <si>
     <t>1 to 1 with an md</t>
-  </si>
-  <si>
-    <t>*When did you have to work on a team</t>
   </si>
   <si>
     <t xml:space="preserve">*Didn't fit with the stuff at all
@@ -455,11 +359,6 @@
     <t>Risk</t>
   </si>
   <si>
-    <t>*How many dumplings a day are 
-eaten in Manhattan?
-*Why are you interested in risk?</t>
-  </si>
-  <si>
     <t>*I should have demonstrated my
 quantitative ability
 *It's not interesting to me...but I 
@@ -473,11 +372,6 @@
     <t>1 to 1 w/ hr</t>
   </si>
   <si>
-    <t>*fav class?
-*how do you convince ppl as treasurer?
-*do you like group or individ work?</t>
-  </si>
-  <si>
     <t>*1 was great, 1 not so great w/ a 
 really weird senior guy
 *I also spoke with the greeter,
@@ -491,11 +385,6 @@
     <t>Interdisciplinary Invst Rota Prgrm</t>
   </si>
   <si>
-    <t>*what is the duration on bonds?
-*drew a graph, what is the regression formula
-*what are the interest rates now?</t>
-  </si>
-  <si>
     <t>*They dealt with fixed income, it was 
 really boring
 *One guy was not friendly and 
@@ -505,10 +394,6 @@
     <t>2 to 1 w/ md and md</t>
   </si>
   <si>
-    <t>*what do you look at to analyze a bond
-versus an equity?</t>
-  </si>
-  <si>
     <t>*I was awkward
 *I didn't make a case to why this
 group specifically. It was narrow.</t>
@@ -517,30 +402,16 @@
     <t>1 to 1 w/ vp</t>
   </si>
   <si>
-    <t>*what do we do besides info services?
-*if higher P/E acquires a lower, it's accretive or dilutive?
-*when did you have to understand data?
-*things in operating CFs but not in operating income?
-*if cost of vol goes down, which is more important?</t>
-  </si>
-  <si>
     <t>1 to 1 x2 w/ Dir and Dir
 Corp Dev + Treasury 
 SVCs</t>
   </si>
   <si>
-    <t>*heavy emphasis on brainteasers</t>
-  </si>
-  <si>
     <t>*so technical, wouldn't be interested
 anyways</t>
   </si>
   <si>
     <t>1 to 1 with HR</t>
-  </si>
-  <si>
-    <t>*what happens when IR rise, how does it 
-affect borrowers and lenders?</t>
   </si>
   <si>
     <t>*I should have pretended that I 
@@ -555,10 +426,6 @@
     <t>Random Site Apply</t>
   </si>
   <si>
-    <t>*why us
-*why this program</t>
-  </si>
-  <si>
     <t>*it was really easy</t>
   </si>
   <si>
@@ -566,21 +433,11 @@
 computer</t>
   </si>
   <si>
-    <t>*are you ok with the locations?</t>
-  </si>
-  <si>
     <t>*they took forever to get back to me
 *should emphasize specifically why them</t>
   </si>
   <si>
     <t>1 to 1, prgrm member</t>
-  </si>
-  <si>
-    <t>*what's yield if coupon is 7%, face val 100, and
-selling at 105?
--it's lower than 7%
-*difference btwn primary and secondary issues?
-*tell me something about the markets now</t>
   </si>
   <si>
     <t>*it seemed to go well with both
@@ -591,11 +448,6 @@
     <t>1 to 1 x2, both associates in S&amp;T</t>
   </si>
   <si>
-    <t>*what kind of leader are you?
-*what do you think this position does?
-*when did you take on a positon as a leader?</t>
-  </si>
-  <si>
     <t>Passed phone screen
 Failed second phone</t>
   </si>
@@ -608,14 +460,6 @@
   </si>
   <si>
     <t>Restructuring Analyst, HK</t>
-  </si>
-  <si>
-    <t>*if AR +100 and COGS +50, what happens 
-to the three statements?
-*how do you project NWC? (look at days AR
-, turnover rations, etc)
-*how do you project revenues? (look at px
-and quantity breakdowns)</t>
   </si>
   <si>
     <t>*HK is super technical
@@ -652,18 +496,6 @@
 very important</t>
   </si>
   <si>
-    <t>*How would you rank your skills: technical,
-sales, writing? (I did 1,2,3) but I can focus on
-2,3,1 for my own business
-*pitch me a stock
-*what are the major indices trading at?
-*What keeps NI constant, but changes CFs?
-(change in NWC)
-*case problem, identified what ER bus model
-was. High cost, free product, low time of
-having value. Indirect rev generation</t>
-  </si>
-  <si>
     <t>Passed Phone
 Failed Superday</t>
   </si>
@@ -678,9 +510,6 @@
     <t>So random OCR</t>
   </si>
   <si>
-    <t>*why this program, why commercial banking</t>
-  </si>
-  <si>
     <t>1 to 1 w/ associate
 1 to 1 x4 w/ md, md,
 vp, associate
@@ -709,13 +538,6 @@
     <t>Their site</t>
   </si>
   <si>
-    <t>*tell me about a time when you weighed the
-alternatives to a difficult academic situation?</t>
-  </si>
-  <si>
-    <t>Notable questions</t>
-  </si>
-  <si>
     <t>Investment management</t>
   </si>
   <si>
@@ -732,9 +554,6 @@
   </si>
   <si>
     <t>Companies play it safe and want a matching background</t>
-  </si>
-  <si>
-    <t>questions about my knowledge of the company</t>
   </si>
   <si>
     <t>*I guess I didn't have enough 
@@ -777,16 +596,6 @@
   </si>
   <si>
     <t>Following up a lot helps</t>
-  </si>
-  <si>
-    <t>*when did you have to deal with ambiguity
-*what do you know about us?
-*what departments are you interested in?
-*25 min writing sample, hand written to test
-penmanship. Some open ended prompt
-*role play w/ 3 other candidates, on being 
-stuck in an elevator. figure out a solution
-and then present it</t>
   </si>
   <si>
     <t xml:space="preserve">Passed OCR
@@ -853,11 +662,6 @@
     <t>be as open and flexible as possible</t>
   </si>
   <si>
-    <t>*how much should we pay you?
-*out of the 3 other candidates, which 1 would you take with you and
-which one would you drop?</t>
-  </si>
-  <si>
     <t xml:space="preserve">*if it was in NYC, I'd take it immediately but unfortunately it was not
 *full of top school kids
 </t>
@@ -867,13 +671,6 @@
   </si>
   <si>
     <t>Need the correct language skills. Need to be willing to work long hours and show them that</t>
-  </si>
-  <si>
-    <t>*how much has S&amp;P500 changed over
-this one year of 2015?
-*what is the average multiple of a company trading on this index
-*what do you see yourself doing in 5 years?
-*what are you looking to get out of this job?</t>
   </si>
   <si>
     <t>show why this particual JOB and COMPANY are the BEST fit for you</t>
@@ -923,9 +720,6 @@
     <t>Consulting</t>
   </si>
   <si>
-    <t>standard behavioral</t>
-  </si>
-  <si>
     <t>*I was just awkward unfortunately</t>
   </si>
   <si>
@@ -967,14 +761,6 @@
   </si>
   <si>
     <t>Boutique investment bank</t>
-  </si>
-  <si>
-    <t>*why would you price an equity issuance at
-a discount?
-*what are the risks x company faces?
-***how do the diff val methods work together?
-*how does HRC's stmt affect pharma industry?
-*why M&amp;A specifically?</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -995,9 +781,6 @@
   </si>
   <si>
     <t>Corporate firm</t>
-  </si>
-  <si>
-    <t>*What is a strength and a weakness?</t>
   </si>
   <si>
     <t>Insurance company</t>
@@ -1069,12 +852,6 @@
   </si>
   <si>
     <t>Felt like the guy was interviewing me just to interview me (lol)</t>
-  </si>
-  <si>
-    <t>*a bunch of technicals on the markets</t>
-  </si>
-  <si>
-    <t>*given your background, why consulting? Are you able to travel?</t>
   </si>
   <si>
     <t>*it went super smooth not sure why I didn't pass it</t>
@@ -1254,6 +1031,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1579,26 +1361,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="23.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="57.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1612,22 +1393,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1635,30 +1413,27 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="80">
+    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1667,228 +1442,204 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="96">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="80">
-      <c r="A5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="144">
-      <c r="A6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="256">
+    <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="96">
+    <row r="8" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32">
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="64">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="128">
+    <row r="11" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -1897,752 +1648,674 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="176">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="160">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="80">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="48">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32">
-      <c r="A16" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="64">
-      <c r="A17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="96">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="96">
-      <c r="A19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="64">
+    <row r="20" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="96">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="64">
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="112">
+    <row r="23" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="128">
+    <row r="24" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="288">
+    <row r="25" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="160">
+    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="192">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="64">
+    <row r="28" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="80">
+    <row r="29" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="32">
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="96">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="48">
+    <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="208">
+    <row r="34" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="32">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="64">
+    <row r="36" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="64">
+    <row r="37" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>
@@ -2651,85 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="32">
+    </row>
+    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="128">
+    </row>
+    <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="96">
+    </row>
+    <row r="40" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>4</v>
@@ -2738,233 +2402,206 @@
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="160">
+    </row>
+    <row r="41" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="32">
+    </row>
+    <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="3" t="s">
+    </row>
+    <row r="44" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="304">
-      <c r="A43" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="64">
-      <c r="A44" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="32">
-      <c r="A45" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="C46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30">
-      <c r="A46" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="45">
-      <c r="A47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2972,102 +2609,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>